--- a/doc/wts_register_map.xlsx
+++ b/doc/wts_register_map.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="522">
   <si>
     <t>SCC registers</t>
     <phoneticPr fontId="1"/>
@@ -2502,6 +2502,46 @@
   </si>
   <si>
     <t>Ch.F1 Key On/Release/Off</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A6F0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timer1 enable, channel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A6F1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timer1 status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A6F2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A6F3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timer2 enable, channel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Timer2 status</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2540,7 +2580,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2683,52 +2723,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2759,15 +2760,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2784,6 +2776,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3066,10 +3070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E277"/>
+  <dimension ref="A2:E281"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E288" sqref="E288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3803,16 +3807,16 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="D56" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3830,36 +3834,46 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="4" t="s">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B58" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="6" t="s">
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B59" s="17"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>103</v>
       </c>
+      <c r="B60" s="17"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3934,7 +3948,7 @@
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="11" t="s">
         <v>123</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -3948,7 +3962,7 @@
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -3962,7 +3976,7 @@
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="11" t="s">
         <v>125</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -3976,7 +3990,7 @@
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="11" t="s">
         <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -3990,7 +4004,7 @@
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="11" t="s">
         <v>127</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -4004,7 +4018,7 @@
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="11" t="s">
         <v>128</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -4018,7 +4032,7 @@
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="11" t="s">
         <v>129</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -4608,1875 +4622,1923 @@
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E122" s="15" t="s">
+      <c r="C122" s="10"/>
+      <c r="D122" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E122" s="12" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="11" t="s">
         <v>226</v>
       </c>
       <c r="C123" s="1"/>
-      <c r="D123" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="15" t="s">
+      <c r="D123" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E123" s="12" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E124" s="15" t="s">
+      <c r="C124" s="10"/>
+      <c r="D124" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E124" s="12" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="11" t="s">
         <v>196</v>
       </c>
       <c r="C125" s="1"/>
-      <c r="D125" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" s="15" t="s">
+      <c r="D125" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E125" s="12" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E126" s="15" t="s">
+      <c r="C126" s="10"/>
+      <c r="D126" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E126" s="12" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B127" s="14" t="s">
+      <c r="B127" s="11" t="s">
         <v>198</v>
       </c>
       <c r="C127" s="1"/>
-      <c r="D127" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" s="15" t="s">
+      <c r="D127" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E127" s="12" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" s="15" t="s">
+      <c r="C128" s="10"/>
+      <c r="D128" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="12" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="11" t="s">
         <v>228</v>
       </c>
       <c r="C129" s="1"/>
-      <c r="D129" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" s="15" t="s">
+      <c r="D129" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" s="12" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E130" s="15" t="s">
+      <c r="C130" s="10"/>
+      <c r="D130" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" s="12" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B131" s="14" t="s">
+      <c r="B131" s="11" t="s">
         <v>230</v>
       </c>
       <c r="C131" s="1"/>
-      <c r="D131" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E131" s="15" t="s">
+      <c r="D131" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E131" s="12" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E132" s="15" t="s">
+      <c r="C132" s="10"/>
+      <c r="D132" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E132" s="12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="11" t="s">
         <v>500</v>
       </c>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E133" s="15" t="s">
+      <c r="C133" s="10"/>
+      <c r="D133" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" s="12" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B134" s="14" t="s">
+      <c r="B134" s="11" t="s">
         <v>499</v>
       </c>
       <c r="C134" s="1"/>
-      <c r="D134" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E134" s="15" t="s">
+      <c r="D134" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" s="15" t="s">
+      <c r="C135" s="10"/>
+      <c r="D135" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" s="12" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B136" s="14" t="s">
+      <c r="B136" s="11" t="s">
         <v>235</v>
       </c>
       <c r="C136" s="1"/>
-      <c r="D136" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E136" s="15" t="s">
+      <c r="D136" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" s="12" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B137" s="14" t="s">
+      <c r="B137" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E137" s="15" t="s">
+      <c r="C137" s="10"/>
+      <c r="D137" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" s="12" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B138" s="14" t="s">
+      <c r="B138" s="11" t="s">
         <v>237</v>
       </c>
       <c r="C138" s="1"/>
-      <c r="D138" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E138" s="15" t="s">
+      <c r="D138" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E138" s="12" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B139" s="14" t="s">
+      <c r="B139" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E139" s="15" t="s">
+      <c r="C139" s="10"/>
+      <c r="D139" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" s="12" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="11" t="s">
         <v>239</v>
       </c>
       <c r="C140" s="1"/>
-      <c r="D140" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E140" s="15" t="s">
+      <c r="D140" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E140" s="12" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E141" s="15" t="s">
+      <c r="C141" s="10"/>
+      <c r="D141" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E141" s="12" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="11" t="s">
         <v>241</v>
       </c>
       <c r="C142" s="1"/>
-      <c r="D142" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E142" s="15" t="s">
+      <c r="D142" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E142" s="12" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B143" s="14" t="s">
+      <c r="B143" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E143" s="15" t="s">
+      <c r="C143" s="10"/>
+      <c r="D143" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E143" s="12" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B144" s="14" t="s">
+      <c r="B144" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C144" s="1"/>
-      <c r="D144" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E144" s="15" t="s">
+      <c r="D144" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E144" s="12" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E145" s="15" t="s">
+      <c r="C145" s="10"/>
+      <c r="D145" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E145" s="12" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B146" s="14" t="s">
+      <c r="B146" s="11" t="s">
         <v>498</v>
       </c>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E146" s="15" t="s">
+      <c r="C146" s="10"/>
+      <c r="D146" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="12" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="11" t="s">
         <v>497</v>
       </c>
       <c r="C147" s="1"/>
-      <c r="D147" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E147" s="15" t="s">
+      <c r="D147" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E147" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E148" s="15" t="s">
+      <c r="C148" s="10"/>
+      <c r="D148" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E148" s="12" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="11" t="s">
         <v>257</v>
       </c>
       <c r="C149" s="1"/>
-      <c r="D149" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E149" s="15" t="s">
+      <c r="D149" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E149" s="12" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E150" s="15" t="s">
+      <c r="C150" s="10"/>
+      <c r="D150" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" s="12" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="11" t="s">
         <v>259</v>
       </c>
       <c r="C151" s="1"/>
-      <c r="D151" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E151" s="15" t="s">
+      <c r="D151" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E151" s="12" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C152" s="13"/>
-      <c r="D152" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E152" s="15" t="s">
+      <c r="C152" s="10"/>
+      <c r="D152" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" s="12" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="11" t="s">
         <v>261</v>
       </c>
       <c r="C153" s="1"/>
-      <c r="D153" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E153" s="15" t="s">
+      <c r="D153" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" s="12" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C154" s="13"/>
-      <c r="D154" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E154" s="15" t="s">
+      <c r="C154" s="10"/>
+      <c r="D154" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E154" s="12" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="11" t="s">
         <v>263</v>
       </c>
       <c r="C155" s="1"/>
-      <c r="D155" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E155" s="15" t="s">
+      <c r="D155" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E155" s="12" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E156" s="15" t="s">
+      <c r="C156" s="10"/>
+      <c r="D156" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E156" s="12" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="11" t="s">
         <v>265</v>
       </c>
       <c r="C157" s="1"/>
-      <c r="D157" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E157" s="15" t="s">
+      <c r="D157" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E157" s="12" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E158" s="15" t="s">
+      <c r="C158" s="10"/>
+      <c r="D158" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E158" s="12" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="11" t="s">
         <v>496</v>
       </c>
-      <c r="C159" s="13"/>
-      <c r="D159" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E159" s="15" t="s">
+      <c r="C159" s="10"/>
+      <c r="D159" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" s="12" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="11" t="s">
         <v>495</v>
       </c>
       <c r="C160" s="1"/>
-      <c r="D160" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E160" s="15" t="s">
+      <c r="D160" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="C161" s="13"/>
-      <c r="D161" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E161" s="15" t="s">
+      <c r="C161" s="10"/>
+      <c r="D161" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E161" s="12" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="11" t="s">
         <v>279</v>
       </c>
       <c r="C162" s="1"/>
-      <c r="D162" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E162" s="15" t="s">
+      <c r="D162" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E162" s="12" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="C163" s="13"/>
-      <c r="D163" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E163" s="15" t="s">
+      <c r="C163" s="10"/>
+      <c r="D163" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E163" s="12" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="11" t="s">
         <v>281</v>
       </c>
       <c r="C164" s="1"/>
-      <c r="D164" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E164" s="15" t="s">
+      <c r="D164" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" s="12" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="C165" s="13"/>
-      <c r="D165" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E165" s="15" t="s">
+      <c r="C165" s="10"/>
+      <c r="D165" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" s="12" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B166" s="14" t="s">
+      <c r="B166" s="11" t="s">
         <v>283</v>
       </c>
       <c r="C166" s="1"/>
-      <c r="D166" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E166" s="15" t="s">
+      <c r="D166" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" s="12" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B167" s="14" t="s">
+      <c r="B167" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="C167" s="13"/>
-      <c r="D167" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E167" s="15" t="s">
+      <c r="C167" s="10"/>
+      <c r="D167" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" s="12" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B168" s="14" t="s">
+      <c r="B168" s="11" t="s">
         <v>285</v>
       </c>
       <c r="C168" s="1"/>
-      <c r="D168" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E168" s="15" t="s">
+      <c r="D168" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" s="12" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B169" s="14" t="s">
+      <c r="B169" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C169" s="13"/>
-      <c r="D169" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E169" s="15" t="s">
+      <c r="C169" s="10"/>
+      <c r="D169" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" s="12" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B170" s="14" t="s">
+      <c r="B170" s="11" t="s">
         <v>287</v>
       </c>
       <c r="C170" s="1"/>
-      <c r="D170" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E170" s="15" t="s">
+      <c r="D170" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E170" s="12" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B171" s="14" t="s">
+      <c r="B171" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C171" s="13"/>
-      <c r="D171" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E171" s="15" t="s">
+      <c r="C171" s="10"/>
+      <c r="D171" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E171" s="12" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B172" s="14" t="s">
+      <c r="B172" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="C172" s="13"/>
-      <c r="D172" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E172" s="15" t="s">
+      <c r="C172" s="10"/>
+      <c r="D172" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E172" s="12" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B173" s="14" t="s">
+      <c r="B173" s="11" t="s">
         <v>494</v>
       </c>
       <c r="C173" s="1"/>
-      <c r="D173" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E173" s="15" t="s">
+      <c r="D173" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E173" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B174" s="14" t="s">
+      <c r="B174" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="C174" s="13"/>
-      <c r="D174" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E174" s="15" t="s">
+      <c r="C174" s="10"/>
+      <c r="D174" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E174" s="12" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B175" s="14" t="s">
+      <c r="B175" s="11" t="s">
         <v>301</v>
       </c>
       <c r="C175" s="1"/>
-      <c r="D175" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E175" s="15" t="s">
+      <c r="D175" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E175" s="12" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B176" s="14" t="s">
+      <c r="B176" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="C176" s="13"/>
-      <c r="D176" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E176" s="15" t="s">
+      <c r="C176" s="10"/>
+      <c r="D176" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E176" s="12" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B177" s="14" t="s">
+      <c r="B177" s="11" t="s">
         <v>303</v>
       </c>
       <c r="C177" s="1"/>
-      <c r="D177" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E177" s="15" t="s">
+      <c r="D177" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E177" s="12" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B178" s="14" t="s">
+      <c r="B178" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E178" s="15" t="s">
+      <c r="C178" s="10"/>
+      <c r="D178" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E178" s="12" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B179" s="14" t="s">
+      <c r="B179" s="11" t="s">
         <v>305</v>
       </c>
       <c r="C179" s="1"/>
-      <c r="D179" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E179" s="15" t="s">
+      <c r="D179" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E179" s="12" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B180" s="14" t="s">
+      <c r="B180" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E180" s="15" t="s">
+      <c r="C180" s="10"/>
+      <c r="D180" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E180" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B181" s="14" t="s">
+      <c r="B181" s="11" t="s">
         <v>307</v>
       </c>
       <c r="C181" s="1"/>
-      <c r="D181" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E181" s="15" t="s">
+      <c r="D181" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E181" s="12" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B182" s="14" t="s">
+      <c r="B182" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="C182" s="13"/>
-      <c r="D182" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E182" s="15" t="s">
+      <c r="C182" s="10"/>
+      <c r="D182" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E182" s="12" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B183" s="14" t="s">
+      <c r="B183" s="11" t="s">
         <v>309</v>
       </c>
       <c r="C183" s="1"/>
-      <c r="D183" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E183" s="15" t="s">
+      <c r="D183" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E183" s="12" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B184" s="14" t="s">
+      <c r="B184" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="C184" s="13"/>
-      <c r="D184" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E184" s="15" t="s">
+      <c r="C184" s="10"/>
+      <c r="D184" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E184" s="12" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B185" s="14" t="s">
+      <c r="B185" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="C185" s="13"/>
-      <c r="D185" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E185" s="15" t="s">
+      <c r="C185" s="10"/>
+      <c r="D185" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E185" s="12" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B186" s="14" t="s">
+      <c r="B186" s="11" t="s">
         <v>478</v>
       </c>
       <c r="C186" s="1"/>
-      <c r="D186" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E186" s="15" t="s">
+      <c r="D186" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E186" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B187" s="14" t="s">
+      <c r="B187" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C187" s="13"/>
-      <c r="D187" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E187" s="15" t="s">
+      <c r="C187" s="10"/>
+      <c r="D187" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E187" s="12" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B188" s="14" t="s">
+      <c r="B188" s="11" t="s">
         <v>312</v>
       </c>
       <c r="C188" s="1"/>
-      <c r="D188" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E188" s="15" t="s">
+      <c r="D188" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E188" s="12" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B189" s="14" t="s">
+      <c r="B189" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="C189" s="13"/>
-      <c r="D189" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E189" s="15" t="s">
+      <c r="C189" s="10"/>
+      <c r="D189" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E189" s="12" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B190" s="14" t="s">
+      <c r="B190" s="11" t="s">
         <v>314</v>
       </c>
       <c r="C190" s="1"/>
-      <c r="D190" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E190" s="15" t="s">
+      <c r="D190" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" s="12" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B191" s="14" t="s">
+      <c r="B191" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="C191" s="13"/>
-      <c r="D191" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E191" s="15" t="s">
+      <c r="C191" s="10"/>
+      <c r="D191" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" s="12" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B192" s="14" t="s">
+      <c r="B192" s="11" t="s">
         <v>316</v>
       </c>
       <c r="C192" s="1"/>
-      <c r="D192" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E192" s="15" t="s">
+      <c r="D192" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E192" s="12" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B193" s="14" t="s">
+      <c r="B193" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C193" s="13"/>
-      <c r="D193" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E193" s="15" t="s">
+      <c r="C193" s="10"/>
+      <c r="D193" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E193" s="12" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B194" s="14" t="s">
+      <c r="B194" s="11" t="s">
         <v>318</v>
       </c>
       <c r="C194" s="1"/>
-      <c r="D194" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E194" s="15" t="s">
+      <c r="D194" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" s="12" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B195" s="14" t="s">
+      <c r="B195" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="C195" s="13"/>
-      <c r="D195" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E195" s="15" t="s">
+      <c r="C195" s="10"/>
+      <c r="D195" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" s="12" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B196" s="14" t="s">
+      <c r="B196" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C196" s="1"/>
-      <c r="D196" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E196" s="15" t="s">
+      <c r="D196" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E196" s="12" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B197" s="14" t="s">
+      <c r="B197" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C197" s="13"/>
-      <c r="D197" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E197" s="15" t="s">
+      <c r="C197" s="10"/>
+      <c r="D197" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E197" s="12" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B198" s="14" t="s">
+      <c r="B198" s="11" t="s">
         <v>491</v>
       </c>
-      <c r="C198" s="13"/>
-      <c r="D198" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E198" s="15" t="s">
+      <c r="C198" s="10"/>
+      <c r="D198" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E198" s="12" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B199" s="14" t="s">
+      <c r="B199" s="11" t="s">
         <v>492</v>
       </c>
       <c r="C199" s="1"/>
-      <c r="D199" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E199" s="15" t="s">
+      <c r="D199" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E199" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B200" s="14" t="s">
+      <c r="B200" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="C200" s="13"/>
-      <c r="D200" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E200" s="15" t="s">
+      <c r="C200" s="10"/>
+      <c r="D200" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E200" s="12" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B201" s="14" t="s">
+      <c r="B201" s="11" t="s">
         <v>345</v>
       </c>
       <c r="C201" s="1"/>
-      <c r="D201" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E201" s="15" t="s">
+      <c r="D201" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E201" s="12" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B202" s="14" t="s">
+      <c r="B202" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C202" s="13"/>
-      <c r="D202" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E202" s="15" t="s">
+      <c r="C202" s="10"/>
+      <c r="D202" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E202" s="12" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B203" s="14" t="s">
+      <c r="B203" s="11" t="s">
         <v>347</v>
       </c>
       <c r="C203" s="1"/>
-      <c r="D203" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E203" s="15" t="s">
+      <c r="D203" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E203" s="12" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B204" s="14" t="s">
+      <c r="B204" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C204" s="13"/>
-      <c r="D204" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E204" s="15" t="s">
+      <c r="C204" s="10"/>
+      <c r="D204" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E204" s="12" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B205" s="14" t="s">
+      <c r="B205" s="11" t="s">
         <v>349</v>
       </c>
       <c r="C205" s="1"/>
-      <c r="D205" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E205" s="15" t="s">
+      <c r="D205" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E205" s="12" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B206" s="14" t="s">
+      <c r="B206" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C206" s="13"/>
-      <c r="D206" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E206" s="15" t="s">
+      <c r="C206" s="10"/>
+      <c r="D206" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E206" s="12" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B207" s="14" t="s">
+      <c r="B207" s="11" t="s">
         <v>351</v>
       </c>
       <c r="C207" s="1"/>
-      <c r="D207" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E207" s="15" t="s">
+      <c r="D207" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E207" s="12" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B208" s="14" t="s">
+      <c r="B208" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="C208" s="13"/>
-      <c r="D208" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E208" s="15" t="s">
+      <c r="C208" s="10"/>
+      <c r="D208" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E208" s="12" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B209" s="14" t="s">
+      <c r="B209" s="11" t="s">
         <v>353</v>
       </c>
       <c r="C209" s="1"/>
-      <c r="D209" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E209" s="15" t="s">
+      <c r="D209" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E209" s="12" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B210" s="14" t="s">
+      <c r="B210" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="C210" s="13"/>
-      <c r="D210" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E210" s="15" t="s">
+      <c r="C210" s="10"/>
+      <c r="D210" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E210" s="12" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B211" s="14" t="s">
+      <c r="B211" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="C211" s="13"/>
-      <c r="D211" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E211" s="15" t="s">
+      <c r="C211" s="10"/>
+      <c r="D211" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E211" s="12" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B212" s="14" t="s">
+      <c r="B212" s="11" t="s">
         <v>489</v>
       </c>
       <c r="C212" s="1"/>
-      <c r="D212" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E212" s="15" t="s">
+      <c r="D212" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E212" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B213" s="14" t="s">
+      <c r="B213" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C213" s="13"/>
-      <c r="D213" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E213" s="15" t="s">
+      <c r="C213" s="10"/>
+      <c r="D213" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E213" s="12" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B214" s="14" t="s">
+      <c r="B214" s="11" t="s">
         <v>356</v>
       </c>
       <c r="C214" s="1"/>
-      <c r="D214" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E214" s="15" t="s">
+      <c r="D214" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E214" s="12" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B215" s="14" t="s">
+      <c r="B215" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="C215" s="13"/>
-      <c r="D215" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E215" s="15" t="s">
+      <c r="C215" s="10"/>
+      <c r="D215" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E215" s="12" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B216" s="14" t="s">
+      <c r="B216" s="11" t="s">
         <v>358</v>
       </c>
       <c r="C216" s="1"/>
-      <c r="D216" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E216" s="15" t="s">
+      <c r="D216" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E216" s="12" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B217" s="14" t="s">
+      <c r="B217" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="C217" s="13"/>
-      <c r="D217" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E217" s="15" t="s">
+      <c r="C217" s="10"/>
+      <c r="D217" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E217" s="12" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B218" s="14" t="s">
+      <c r="B218" s="11" t="s">
         <v>360</v>
       </c>
       <c r="C218" s="1"/>
-      <c r="D218" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E218" s="15" t="s">
+      <c r="D218" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E218" s="12" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B219" s="14" t="s">
+      <c r="B219" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="C219" s="13"/>
-      <c r="D219" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E219" s="15" t="s">
+      <c r="C219" s="10"/>
+      <c r="D219" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E219" s="12" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B220" s="14" t="s">
+      <c r="B220" s="11" t="s">
         <v>362</v>
       </c>
       <c r="C220" s="1"/>
-      <c r="D220" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E220" s="15" t="s">
+      <c r="D220" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E220" s="12" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B221" s="14" t="s">
+      <c r="B221" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="C221" s="13"/>
-      <c r="D221" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E221" s="15" t="s">
+      <c r="C221" s="10"/>
+      <c r="D221" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E221" s="12" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B222" s="14" t="s">
+      <c r="B222" s="11" t="s">
         <v>364</v>
       </c>
       <c r="C222" s="1"/>
-      <c r="D222" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E222" s="15" t="s">
+      <c r="D222" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E222" s="12" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B223" s="14" t="s">
+      <c r="B223" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="C223" s="13"/>
-      <c r="D223" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E223" s="15" t="s">
+      <c r="C223" s="10"/>
+      <c r="D223" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E223" s="12" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B224" s="14" t="s">
+      <c r="B224" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="C224" s="13"/>
-      <c r="D224" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E224" s="15" t="s">
+      <c r="C224" s="10"/>
+      <c r="D224" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E224" s="12" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B225" s="14" t="s">
+      <c r="B225" s="11" t="s">
         <v>487</v>
       </c>
       <c r="C225" s="1"/>
-      <c r="D225" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E225" s="15" t="s">
+      <c r="D225" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E225" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B226" s="14" t="s">
+      <c r="B226" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="C226" s="13"/>
-      <c r="D226" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E226" s="15" t="s">
+      <c r="C226" s="10"/>
+      <c r="D226" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E226" s="12" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B227" s="14" t="s">
+      <c r="B227" s="11" t="s">
         <v>367</v>
       </c>
       <c r="C227" s="1"/>
-      <c r="D227" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E227" s="15" t="s">
+      <c r="D227" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E227" s="12" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B228" s="14" t="s">
+      <c r="B228" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="C228" s="13"/>
-      <c r="D228" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E228" s="15" t="s">
+      <c r="C228" s="10"/>
+      <c r="D228" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E228" s="12" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B229" s="14" t="s">
+      <c r="B229" s="11" t="s">
         <v>369</v>
       </c>
       <c r="C229" s="1"/>
-      <c r="D229" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E229" s="15" t="s">
+      <c r="D229" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E229" s="12" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B230" s="14" t="s">
+      <c r="B230" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="C230" s="13"/>
-      <c r="D230" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E230" s="15" t="s">
+      <c r="C230" s="10"/>
+      <c r="D230" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E230" s="12" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B231" s="14" t="s">
+      <c r="B231" s="11" t="s">
         <v>371</v>
       </c>
       <c r="C231" s="1"/>
-      <c r="D231" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E231" s="15" t="s">
+      <c r="D231" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E231" s="12" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B232" s="14" t="s">
+      <c r="B232" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C232" s="13"/>
-      <c r="D232" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E232" s="15" t="s">
+      <c r="C232" s="10"/>
+      <c r="D232" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E232" s="12" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B233" s="14" t="s">
+      <c r="B233" s="11" t="s">
         <v>373</v>
       </c>
       <c r="C233" s="1"/>
-      <c r="D233" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E233" s="15" t="s">
+      <c r="D233" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E233" s="12" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B234" s="14" t="s">
+      <c r="B234" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="C234" s="13"/>
-      <c r="D234" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E234" s="15" t="s">
+      <c r="C234" s="10"/>
+      <c r="D234" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E234" s="12" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B235" s="14" t="s">
+      <c r="B235" s="11" t="s">
         <v>375</v>
       </c>
       <c r="C235" s="1"/>
-      <c r="D235" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E235" s="15" t="s">
+      <c r="D235" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E235" s="12" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B236" s="14" t="s">
+      <c r="B236" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="C236" s="13"/>
-      <c r="D236" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E236" s="15" t="s">
+      <c r="C236" s="10"/>
+      <c r="D236" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E236" s="12" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B237" s="14" t="s">
+      <c r="B237" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="C237" s="13"/>
-      <c r="D237" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E237" s="15" t="s">
+      <c r="C237" s="10"/>
+      <c r="D237" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E237" s="12" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B238" s="14" t="s">
+      <c r="B238" s="11" t="s">
         <v>485</v>
       </c>
       <c r="C238" s="1"/>
-      <c r="D238" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E238" s="15" t="s">
+      <c r="D238" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E238" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B239" s="14" t="s">
+      <c r="B239" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="C239" s="13"/>
-      <c r="D239" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E239" s="15" t="s">
+      <c r="C239" s="10"/>
+      <c r="D239" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E239" s="12" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B240" s="14" t="s">
+      <c r="B240" s="11" t="s">
         <v>378</v>
       </c>
       <c r="C240" s="1"/>
-      <c r="D240" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E240" s="15" t="s">
+      <c r="D240" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E240" s="12" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B241" s="14" t="s">
+      <c r="B241" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="C241" s="13"/>
-      <c r="D241" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E241" s="15" t="s">
+      <c r="C241" s="10"/>
+      <c r="D241" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E241" s="12" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B242" s="14" t="s">
+      <c r="B242" s="11" t="s">
         <v>380</v>
       </c>
       <c r="C242" s="1"/>
-      <c r="D242" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E242" s="15" t="s">
+      <c r="D242" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E242" s="12" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B243" s="14" t="s">
+      <c r="B243" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="C243" s="13"/>
-      <c r="D243" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E243" s="15" t="s">
+      <c r="C243" s="10"/>
+      <c r="D243" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E243" s="12" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B244" s="14" t="s">
+      <c r="B244" s="11" t="s">
         <v>382</v>
       </c>
       <c r="C244" s="1"/>
-      <c r="D244" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E244" s="15" t="s">
+      <c r="D244" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E244" s="12" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B245" s="14" t="s">
+      <c r="B245" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="C245" s="13"/>
-      <c r="D245" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E245" s="15" t="s">
+      <c r="C245" s="10"/>
+      <c r="D245" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E245" s="12" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B246" s="14" t="s">
+      <c r="B246" s="11" t="s">
         <v>384</v>
       </c>
       <c r="C246" s="1"/>
-      <c r="D246" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E246" s="15" t="s">
+      <c r="D246" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E246" s="12" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B247" s="14" t="s">
+      <c r="B247" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="C247" s="13"/>
-      <c r="D247" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E247" s="15" t="s">
+      <c r="C247" s="10"/>
+      <c r="D247" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E247" s="12" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B248" s="14" t="s">
+      <c r="B248" s="11" t="s">
         <v>386</v>
       </c>
       <c r="C248" s="1"/>
-      <c r="D248" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E248" s="15" t="s">
+      <c r="D248" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E248" s="12" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B249" s="14" t="s">
+      <c r="B249" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="C249" s="13"/>
-      <c r="D249" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E249" s="15" t="s">
+      <c r="C249" s="10"/>
+      <c r="D249" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E249" s="12" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B250" s="14" t="s">
+      <c r="B250" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="C250" s="13"/>
-      <c r="D250" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E250" s="15" t="s">
+      <c r="C250" s="10"/>
+      <c r="D250" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E250" s="12" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B251" s="14" t="s">
+      <c r="B251" s="11" t="s">
         <v>483</v>
       </c>
       <c r="C251" s="1"/>
-      <c r="D251" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E251" s="15" t="s">
+      <c r="D251" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E251" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B252" s="14" t="s">
+      <c r="B252" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="C252" s="13"/>
-      <c r="D252" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E252" s="15" t="s">
+      <c r="C252" s="10"/>
+      <c r="D252" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E252" s="12" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B253" s="14" t="s">
+      <c r="B253" s="11" t="s">
         <v>389</v>
       </c>
       <c r="C253" s="1"/>
-      <c r="D253" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E253" s="15" t="s">
+      <c r="D253" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E253" s="12" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B254" s="14" t="s">
+      <c r="B254" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="C254" s="13"/>
-      <c r="D254" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E254" s="15" t="s">
+      <c r="C254" s="10"/>
+      <c r="D254" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E254" s="12" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B255" s="14" t="s">
+      <c r="B255" s="11" t="s">
         <v>391</v>
       </c>
       <c r="C255" s="1"/>
-      <c r="D255" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E255" s="15" t="s">
+      <c r="D255" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E255" s="12" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B256" s="14" t="s">
+      <c r="B256" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="C256" s="13"/>
-      <c r="D256" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E256" s="15" t="s">
+      <c r="C256" s="10"/>
+      <c r="D256" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E256" s="12" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B257" s="14" t="s">
+      <c r="B257" s="11" t="s">
         <v>393</v>
       </c>
       <c r="C257" s="1"/>
-      <c r="D257" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E257" s="15" t="s">
+      <c r="D257" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E257" s="12" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B258" s="14" t="s">
+      <c r="B258" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="C258" s="13"/>
-      <c r="D258" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E258" s="15" t="s">
+      <c r="C258" s="10"/>
+      <c r="D258" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E258" s="12" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B259" s="14" t="s">
+      <c r="B259" s="11" t="s">
         <v>395</v>
       </c>
       <c r="C259" s="1"/>
-      <c r="D259" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E259" s="15" t="s">
+      <c r="D259" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E259" s="12" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B260" s="14" t="s">
+      <c r="B260" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="C260" s="13"/>
-      <c r="D260" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E260" s="15" t="s">
+      <c r="C260" s="10"/>
+      <c r="D260" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E260" s="12" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B261" s="14" t="s">
+      <c r="B261" s="11" t="s">
         <v>397</v>
       </c>
       <c r="C261" s="1"/>
-      <c r="D261" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E261" s="15" t="s">
+      <c r="D261" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E261" s="12" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B262" s="14" t="s">
+      <c r="B262" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="C262" s="13"/>
-      <c r="D262" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E262" s="15" t="s">
+      <c r="C262" s="10"/>
+      <c r="D262" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E262" s="12" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B263" s="14" t="s">
+      <c r="B263" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="C263" s="13"/>
-      <c r="D263" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E263" s="15" t="s">
+      <c r="C263" s="10"/>
+      <c r="D263" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E263" s="12" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B264" s="14" t="s">
+      <c r="B264" s="11" t="s">
         <v>482</v>
       </c>
       <c r="C264" s="1"/>
-      <c r="D264" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E264" s="15" t="s">
+      <c r="D264" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E264" s="12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B265" s="14" t="s">
+      <c r="B265" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="C265" s="13"/>
-      <c r="D265" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E265" s="15" t="s">
+      <c r="C265" s="10"/>
+      <c r="D265" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E265" s="12" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B266" s="14" t="s">
+      <c r="B266" s="11" t="s">
         <v>400</v>
       </c>
       <c r="C266" s="1"/>
-      <c r="D266" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E266" s="15" t="s">
+      <c r="D266" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E266" s="12" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B267" s="14" t="s">
+      <c r="B267" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="C267" s="13"/>
-      <c r="D267" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E267" s="15" t="s">
+      <c r="C267" s="10"/>
+      <c r="D267" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E267" s="12" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B268" s="14" t="s">
+      <c r="B268" s="11" t="s">
         <v>402</v>
       </c>
       <c r="C268" s="1"/>
-      <c r="D268" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E268" s="15" t="s">
+      <c r="D268" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E268" s="12" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B269" s="14" t="s">
+      <c r="B269" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="C269" s="13"/>
-      <c r="D269" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E269" s="15" t="s">
+      <c r="C269" s="10"/>
+      <c r="D269" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E269" s="12" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B270" s="14" t="s">
+      <c r="B270" s="11" t="s">
         <v>404</v>
       </c>
       <c r="C270" s="1"/>
-      <c r="D270" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E270" s="15" t="s">
+      <c r="D270" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E270" s="12" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B271" s="14" t="s">
+      <c r="B271" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="C271" s="13"/>
-      <c r="D271" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E271" s="15" t="s">
+      <c r="C271" s="10"/>
+      <c r="D271" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E271" s="12" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B272" s="14" t="s">
+      <c r="B272" s="11" t="s">
         <v>406</v>
       </c>
       <c r="C272" s="1"/>
-      <c r="D272" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E272" s="15" t="s">
+      <c r="D272" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E272" s="12" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B273" s="14" t="s">
+      <c r="B273" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C273" s="13"/>
-      <c r="D273" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E273" s="15" t="s">
+      <c r="C273" s="10"/>
+      <c r="D273" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E273" s="12" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B274" s="14" t="s">
+      <c r="B274" s="11" t="s">
         <v>408</v>
       </c>
       <c r="C274" s="1"/>
-      <c r="D274" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E274" s="15" t="s">
+      <c r="D274" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E274" s="12" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B275" s="14" t="s">
+      <c r="B275" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C275" s="13"/>
-      <c r="D275" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E275" s="15" t="s">
+      <c r="C275" s="10"/>
+      <c r="D275" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E275" s="12" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B276" s="14" t="s">
+      <c r="B276" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="C276" s="13"/>
-      <c r="D276" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E276" s="15" t="s">
+      <c r="C276" s="10"/>
+      <c r="D276" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E276" s="12" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="277" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B277" s="16" t="s">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B277" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="C277" s="5"/>
-      <c r="D277" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E277" s="18" t="s">
+      <c r="C277" s="1"/>
+      <c r="D277" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E277" s="12" t="s">
         <v>233</v>
+      </c>
+    </row>
+    <row r="278" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B278" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="C278" s="1"/>
+      <c r="D278" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="279" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B279" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C279" s="1"/>
+      <c r="D279" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="E279" s="12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="280" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B280" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="C280" s="1"/>
+      <c r="D280" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="E280" s="12" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="281" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B281" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="C281" s="5"/>
+      <c r="D281" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E281" s="15" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/doc/wts_register_map.xlsx
+++ b/doc/wts_register_map.xlsx
@@ -528,26 +528,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A000-A07F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A080-A0FF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A100-A17F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A180-A1FF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A200-A27F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WM5</t>
   </si>
   <si>
@@ -595,66 +575,6 @@
   <si>
     <t>ウェーブメモリー Ch.E1</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A280-A2FF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A300-A37F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A380-A3FF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A400-A47F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A480-A4FF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A500-A57F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A580-A5FF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A600</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A601</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A602</t>
-  </si>
-  <si>
-    <t>A603</t>
-  </si>
-  <si>
-    <t>A604</t>
-  </si>
-  <si>
-    <t>A605</t>
-  </si>
-  <si>
-    <t>A606</t>
-  </si>
-  <si>
-    <t>A607</t>
-  </si>
-  <si>
-    <t>A608</t>
-  </si>
-  <si>
-    <t>A609</t>
   </si>
   <si>
     <t>Ch.F0 周波数指定下位</t>
@@ -839,62 +759,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A60A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A60B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A60C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A60D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A60E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A60F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A610</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A611</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A612</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A613</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A614</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A615</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A616</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A617</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ch.F0 音量</t>
     <rPh sb="6" eb="8">
       <t>オンリョウ</t>
@@ -944,52 +808,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A618</t>
-  </si>
-  <si>
-    <t>A619</t>
-  </si>
-  <si>
-    <t>A61A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A61B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A61C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A61D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A61E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A61F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A620</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A621</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A622</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A623</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ch.A0 ポートイネーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -998,61 +816,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A624</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A625</t>
-  </si>
-  <si>
-    <t>A626</t>
-  </si>
-  <si>
-    <t>A627</t>
-  </si>
-  <si>
-    <t>A628</t>
-  </si>
-  <si>
-    <t>A629</t>
-  </si>
-  <si>
-    <t>A632</t>
-  </si>
-  <si>
-    <t>A633</t>
-  </si>
-  <si>
-    <t>A634</t>
-  </si>
-  <si>
-    <t>A635</t>
-  </si>
-  <si>
-    <t>A62A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A62B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A62C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A62D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A62E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A62F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ch.C0 ポートイネーブル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1090,10 +853,6 @@
   </si>
   <si>
     <t>Ch.F1 ポートイネーブル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A630</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1164,22 +923,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A631</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A636</t>
-  </si>
-  <si>
-    <t>A637</t>
-  </si>
-  <si>
-    <t>A638</t>
-  </si>
-  <si>
-    <t>A639</t>
-  </si>
-  <si>
     <t>Ch.A0 波長</t>
     <rPh sb="6" eb="8">
       <t>ハチョウ</t>
@@ -1187,45 +930,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A63A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Reserve</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A640</t>
-  </si>
-  <si>
-    <t>A641</t>
-  </si>
-  <si>
-    <t>A642</t>
-  </si>
-  <si>
-    <t>A643</t>
-  </si>
-  <si>
-    <t>A644</t>
-  </si>
-  <si>
-    <t>A645</t>
-  </si>
-  <si>
-    <t>A646</t>
-  </si>
-  <si>
-    <t>A647</t>
-  </si>
-  <si>
-    <t>A648</t>
-  </si>
-  <si>
-    <t>A649</t>
-  </si>
-  <si>
-    <t>A64A</t>
   </si>
   <si>
     <t>Ch.B0 AR下位</t>
@@ -1301,39 +1007,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A650</t>
-  </si>
-  <si>
-    <t>A651</t>
-  </si>
-  <si>
-    <t>A652</t>
-  </si>
-  <si>
-    <t>A653</t>
-  </si>
-  <si>
-    <t>A654</t>
-  </si>
-  <si>
-    <t>A655</t>
-  </si>
-  <si>
-    <t>A656</t>
-  </si>
-  <si>
-    <t>A657</t>
-  </si>
-  <si>
-    <t>A658</t>
-  </si>
-  <si>
-    <t>A659</t>
-  </si>
-  <si>
-    <t>A65A</t>
-  </si>
-  <si>
     <t>Ch.C0 AR下位</t>
     <rPh sb="8" eb="10">
       <t>カイ</t>
@@ -1407,39 +1080,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A660</t>
-  </si>
-  <si>
-    <t>A661</t>
-  </si>
-  <si>
-    <t>A662</t>
-  </si>
-  <si>
-    <t>A663</t>
-  </si>
-  <si>
-    <t>A664</t>
-  </si>
-  <si>
-    <t>A665</t>
-  </si>
-  <si>
-    <t>A666</t>
-  </si>
-  <si>
-    <t>A667</t>
-  </si>
-  <si>
-    <t>A668</t>
-  </si>
-  <si>
-    <t>A669</t>
-  </si>
-  <si>
-    <t>A66A</t>
-  </si>
-  <si>
     <t>Ch.D0 AR下位</t>
     <rPh sb="8" eb="10">
       <t>カイ</t>
@@ -1513,72 +1153,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A670</t>
-  </si>
-  <si>
-    <t>A671</t>
-  </si>
-  <si>
-    <t>A672</t>
-  </si>
-  <si>
-    <t>A673</t>
-  </si>
-  <si>
-    <t>A674</t>
-  </si>
-  <si>
-    <t>A675</t>
-  </si>
-  <si>
-    <t>A676</t>
-  </si>
-  <si>
-    <t>A677</t>
-  </si>
-  <si>
-    <t>A678</t>
-  </si>
-  <si>
-    <t>A679</t>
-  </si>
-  <si>
-    <t>A67A</t>
-  </si>
-  <si>
-    <t>A680</t>
-  </si>
-  <si>
-    <t>A681</t>
-  </si>
-  <si>
-    <t>A682</t>
-  </si>
-  <si>
-    <t>A683</t>
-  </si>
-  <si>
-    <t>A684</t>
-  </si>
-  <si>
-    <t>A685</t>
-  </si>
-  <si>
-    <t>A686</t>
-  </si>
-  <si>
-    <t>A687</t>
-  </si>
-  <si>
-    <t>A688</t>
-  </si>
-  <si>
-    <t>A689</t>
-  </si>
-  <si>
-    <t>A68A</t>
-  </si>
-  <si>
     <t>Ch.E0 AR下位</t>
     <rPh sb="8" eb="10">
       <t>カイ</t>
@@ -1725,204 +1299,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A690</t>
-  </si>
-  <si>
-    <t>A691</t>
-  </si>
-  <si>
-    <t>A692</t>
-  </si>
-  <si>
-    <t>A693</t>
-  </si>
-  <si>
-    <t>A694</t>
-  </si>
-  <si>
-    <t>A695</t>
-  </si>
-  <si>
-    <t>A696</t>
-  </si>
-  <si>
-    <t>A697</t>
-  </si>
-  <si>
-    <t>A698</t>
-  </si>
-  <si>
-    <t>A699</t>
-  </si>
-  <si>
-    <t>A69A</t>
-  </si>
-  <si>
-    <t>A6A0</t>
-  </si>
-  <si>
-    <t>A6A1</t>
-  </si>
-  <si>
-    <t>A6A2</t>
-  </si>
-  <si>
-    <t>A6A3</t>
-  </si>
-  <si>
-    <t>A6A4</t>
-  </si>
-  <si>
-    <t>A6A5</t>
-  </si>
-  <si>
-    <t>A6A6</t>
-  </si>
-  <si>
-    <t>A6A7</t>
-  </si>
-  <si>
-    <t>A6A8</t>
-  </si>
-  <si>
-    <t>A6A9</t>
-  </si>
-  <si>
-    <t>A6AA</t>
-  </si>
-  <si>
-    <t>A6B0</t>
-  </si>
-  <si>
-    <t>A6B1</t>
-  </si>
-  <si>
-    <t>A6B2</t>
-  </si>
-  <si>
-    <t>A6B3</t>
-  </si>
-  <si>
-    <t>A6B4</t>
-  </si>
-  <si>
-    <t>A6B5</t>
-  </si>
-  <si>
-    <t>A6B6</t>
-  </si>
-  <si>
-    <t>A6B7</t>
-  </si>
-  <si>
-    <t>A6B8</t>
-  </si>
-  <si>
-    <t>A6B9</t>
-  </si>
-  <si>
-    <t>A6BA</t>
-  </si>
-  <si>
-    <t>A6C0</t>
-  </si>
-  <si>
-    <t>A6C1</t>
-  </si>
-  <si>
-    <t>A6C2</t>
-  </si>
-  <si>
-    <t>A6C3</t>
-  </si>
-  <si>
-    <t>A6C4</t>
-  </si>
-  <si>
-    <t>A6C5</t>
-  </si>
-  <si>
-    <t>A6C6</t>
-  </si>
-  <si>
-    <t>A6C7</t>
-  </si>
-  <si>
-    <t>A6C8</t>
-  </si>
-  <si>
-    <t>A6C9</t>
-  </si>
-  <si>
-    <t>A6CA</t>
-  </si>
-  <si>
-    <t>A6D0</t>
-  </si>
-  <si>
-    <t>A6D1</t>
-  </si>
-  <si>
-    <t>A6D2</t>
-  </si>
-  <si>
-    <t>A6D3</t>
-  </si>
-  <si>
-    <t>A6D4</t>
-  </si>
-  <si>
-    <t>A6D5</t>
-  </si>
-  <si>
-    <t>A6D6</t>
-  </si>
-  <si>
-    <t>A6D7</t>
-  </si>
-  <si>
-    <t>A6D8</t>
-  </si>
-  <si>
-    <t>A6D9</t>
-  </si>
-  <si>
-    <t>A6DA</t>
-  </si>
-  <si>
-    <t>A6E0</t>
-  </si>
-  <si>
-    <t>A6E1</t>
-  </si>
-  <si>
-    <t>A6E2</t>
-  </si>
-  <si>
-    <t>A6E3</t>
-  </si>
-  <si>
-    <t>A6E4</t>
-  </si>
-  <si>
-    <t>A6E5</t>
-  </si>
-  <si>
-    <t>A6E6</t>
-  </si>
-  <si>
-    <t>A6E7</t>
-  </si>
-  <si>
-    <t>A6E8</t>
-  </si>
-  <si>
-    <t>A6E9</t>
-  </si>
-  <si>
-    <t>A6EA</t>
-  </si>
-  <si>
     <t>Ch.A1 AR下位</t>
     <rPh sb="8" eb="10">
       <t>カイ</t>
@@ -2361,106 +1737,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A67B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ch.E0 Key On/Release/Off</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A67C-A67F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A6EB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A6EC-A6EF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A6DB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A6DC-A6DF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A6CC-A6CF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A6CB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A6BC-A6BF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A6BB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A6AC-A6AF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A6AB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A69C-A69F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A69B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A68B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A68C-A68F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A66B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A66C-A66F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A65C-A65F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A65B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A64C-A64F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A64B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A63C-A63F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A63B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ch.A0 Key On/Release/Off</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2505,10 +1785,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A6F0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RO</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2521,27 +1797,688 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A6F1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Timer1 status</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A6F2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A6F3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Timer2 enable, channel</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Timer2 status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A800-A87F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A880-A8FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A900-A97F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A980-A9FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AA00-AA7F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AA80-AAFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB00-AB7F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AB80-ABFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC00-AC7F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AC80-ACFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AD00-AD7F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AD80-ADFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AE00</t>
+  </si>
+  <si>
+    <t>AE01</t>
+  </si>
+  <si>
+    <t>AE02</t>
+  </si>
+  <si>
+    <t>AE03</t>
+  </si>
+  <si>
+    <t>AE04</t>
+  </si>
+  <si>
+    <t>AE05</t>
+  </si>
+  <si>
+    <t>AE06</t>
+  </si>
+  <si>
+    <t>AE07</t>
+  </si>
+  <si>
+    <t>AE08</t>
+  </si>
+  <si>
+    <t>AE09</t>
+  </si>
+  <si>
+    <t>AE0A</t>
+  </si>
+  <si>
+    <t>AE0B</t>
+  </si>
+  <si>
+    <t>AE0C</t>
+  </si>
+  <si>
+    <t>AE0D</t>
+  </si>
+  <si>
+    <t>AE0E</t>
+  </si>
+  <si>
+    <t>AE0F</t>
+  </si>
+  <si>
+    <t>AE10</t>
+  </si>
+  <si>
+    <t>AE11</t>
+  </si>
+  <si>
+    <t>AE12</t>
+  </si>
+  <si>
+    <t>AE13</t>
+  </si>
+  <si>
+    <t>AE14</t>
+  </si>
+  <si>
+    <t>AE15</t>
+  </si>
+  <si>
+    <t>AE16</t>
+  </si>
+  <si>
+    <t>AE17</t>
+  </si>
+  <si>
+    <t>AE18</t>
+  </si>
+  <si>
+    <t>AE19</t>
+  </si>
+  <si>
+    <t>AE1A</t>
+  </si>
+  <si>
+    <t>AE1B</t>
+  </si>
+  <si>
+    <t>AE1C</t>
+  </si>
+  <si>
+    <t>AE1D</t>
+  </si>
+  <si>
+    <t>AE1E</t>
+  </si>
+  <si>
+    <t>AE1F</t>
+  </si>
+  <si>
+    <t>AE20</t>
+  </si>
+  <si>
+    <t>AE21</t>
+  </si>
+  <si>
+    <t>AE22</t>
+  </si>
+  <si>
+    <t>AE23</t>
+  </si>
+  <si>
+    <t>AE24</t>
+  </si>
+  <si>
+    <t>AE25</t>
+  </si>
+  <si>
+    <t>AE26</t>
+  </si>
+  <si>
+    <t>AE27</t>
+  </si>
+  <si>
+    <t>AE28</t>
+  </si>
+  <si>
+    <t>AE29</t>
+  </si>
+  <si>
+    <t>AE2A</t>
+  </si>
+  <si>
+    <t>AE2B</t>
+  </si>
+  <si>
+    <t>AE2C</t>
+  </si>
+  <si>
+    <t>AE2D</t>
+  </si>
+  <si>
+    <t>AE2E</t>
+  </si>
+  <si>
+    <t>AE2F</t>
+  </si>
+  <si>
+    <t>AE30</t>
+  </si>
+  <si>
+    <t>AE31</t>
+  </si>
+  <si>
+    <t>AE32</t>
+  </si>
+  <si>
+    <t>AE33</t>
+  </si>
+  <si>
+    <t>AE34</t>
+  </si>
+  <si>
+    <t>AE35</t>
+  </si>
+  <si>
+    <t>AE36</t>
+  </si>
+  <si>
+    <t>AE37</t>
+  </si>
+  <si>
+    <t>AE38</t>
+  </si>
+  <si>
+    <t>AE39</t>
+  </si>
+  <si>
+    <t>AE3A</t>
+  </si>
+  <si>
+    <t>AE3B</t>
+  </si>
+  <si>
+    <t>AE3C-AE3F</t>
+  </si>
+  <si>
+    <t>AE40</t>
+  </si>
+  <si>
+    <t>AE41</t>
+  </si>
+  <si>
+    <t>AE42</t>
+  </si>
+  <si>
+    <t>AE43</t>
+  </si>
+  <si>
+    <t>AE44</t>
+  </si>
+  <si>
+    <t>AE45</t>
+  </si>
+  <si>
+    <t>AE46</t>
+  </si>
+  <si>
+    <t>AE47</t>
+  </si>
+  <si>
+    <t>AE48</t>
+  </si>
+  <si>
+    <t>AE49</t>
+  </si>
+  <si>
+    <t>AE4A</t>
+  </si>
+  <si>
+    <t>AE4B</t>
+  </si>
+  <si>
+    <t>AE4C-AE4F</t>
+  </si>
+  <si>
+    <t>AE50</t>
+  </si>
+  <si>
+    <t>AE51</t>
+  </si>
+  <si>
+    <t>AE52</t>
+  </si>
+  <si>
+    <t>AE53</t>
+  </si>
+  <si>
+    <t>AE54</t>
+  </si>
+  <si>
+    <t>AE55</t>
+  </si>
+  <si>
+    <t>AE56</t>
+  </si>
+  <si>
+    <t>AE57</t>
+  </si>
+  <si>
+    <t>AE58</t>
+  </si>
+  <si>
+    <t>AE59</t>
+  </si>
+  <si>
+    <t>AE5A</t>
+  </si>
+  <si>
+    <t>AE5B</t>
+  </si>
+  <si>
+    <t>AE5C-AE5F</t>
+  </si>
+  <si>
+    <t>AE60</t>
+  </si>
+  <si>
+    <t>AE61</t>
+  </si>
+  <si>
+    <t>AE62</t>
+  </si>
+  <si>
+    <t>AE63</t>
+  </si>
+  <si>
+    <t>AE64</t>
+  </si>
+  <si>
+    <t>AE65</t>
+  </si>
+  <si>
+    <t>AE66</t>
+  </si>
+  <si>
+    <t>AE67</t>
+  </si>
+  <si>
+    <t>AE68</t>
+  </si>
+  <si>
+    <t>AE69</t>
+  </si>
+  <si>
+    <t>AE6A</t>
+  </si>
+  <si>
+    <t>AE6B</t>
+  </si>
+  <si>
+    <t>AE6C-AE6F</t>
+  </si>
+  <si>
+    <t>AE70</t>
+  </si>
+  <si>
+    <t>AE71</t>
+  </si>
+  <si>
+    <t>AE72</t>
+  </si>
+  <si>
+    <t>AE73</t>
+  </si>
+  <si>
+    <t>AE74</t>
+  </si>
+  <si>
+    <t>AE75</t>
+  </si>
+  <si>
+    <t>AE76</t>
+  </si>
+  <si>
+    <t>AE77</t>
+  </si>
+  <si>
+    <t>AE78</t>
+  </si>
+  <si>
+    <t>AE79</t>
+  </si>
+  <si>
+    <t>AE7A</t>
+  </si>
+  <si>
+    <t>AE7B</t>
+  </si>
+  <si>
+    <t>AE7C-AE7F</t>
+  </si>
+  <si>
+    <t>AE80</t>
+  </si>
+  <si>
+    <t>AE81</t>
+  </si>
+  <si>
+    <t>AE82</t>
+  </si>
+  <si>
+    <t>AE83</t>
+  </si>
+  <si>
+    <t>AE84</t>
+  </si>
+  <si>
+    <t>AE85</t>
+  </si>
+  <si>
+    <t>AE86</t>
+  </si>
+  <si>
+    <t>AE87</t>
+  </si>
+  <si>
+    <t>AE88</t>
+  </si>
+  <si>
+    <t>AE89</t>
+  </si>
+  <si>
+    <t>AE8A</t>
+  </si>
+  <si>
+    <t>AE8B</t>
+  </si>
+  <si>
+    <t>AE8C-AE8F</t>
+  </si>
+  <si>
+    <t>AE90</t>
+  </si>
+  <si>
+    <t>AE91</t>
+  </si>
+  <si>
+    <t>AE92</t>
+  </si>
+  <si>
+    <t>AE93</t>
+  </si>
+  <si>
+    <t>AE94</t>
+  </si>
+  <si>
+    <t>AE95</t>
+  </si>
+  <si>
+    <t>AE96</t>
+  </si>
+  <si>
+    <t>AE97</t>
+  </si>
+  <si>
+    <t>AE98</t>
+  </si>
+  <si>
+    <t>AE99</t>
+  </si>
+  <si>
+    <t>AE9A</t>
+  </si>
+  <si>
+    <t>AE9B</t>
+  </si>
+  <si>
+    <t>AE9C-AE9F</t>
+  </si>
+  <si>
+    <t>AEA0</t>
+  </si>
+  <si>
+    <t>AEA1</t>
+  </si>
+  <si>
+    <t>AEA2</t>
+  </si>
+  <si>
+    <t>AEA3</t>
+  </si>
+  <si>
+    <t>AEA4</t>
+  </si>
+  <si>
+    <t>AEA5</t>
+  </si>
+  <si>
+    <t>AEA7</t>
+  </si>
+  <si>
+    <t>AEA8</t>
+  </si>
+  <si>
+    <t>AEA9</t>
+  </si>
+  <si>
+    <t>AEAA</t>
+  </si>
+  <si>
+    <t>AEAB</t>
+  </si>
+  <si>
+    <t>AEAC-AEAF</t>
+  </si>
+  <si>
+    <t>AEB0</t>
+  </si>
+  <si>
+    <t>AEB1</t>
+  </si>
+  <si>
+    <t>AEB2</t>
+  </si>
+  <si>
+    <t>AEB3</t>
+  </si>
+  <si>
+    <t>AEB4</t>
+  </si>
+  <si>
+    <t>AEB5</t>
+  </si>
+  <si>
+    <t>AEB6</t>
+  </si>
+  <si>
+    <t>AEB7</t>
+  </si>
+  <si>
+    <t>AEB8</t>
+  </si>
+  <si>
+    <t>AEB9</t>
+  </si>
+  <si>
+    <t>AEBA</t>
+  </si>
+  <si>
+    <t>AEBB</t>
+  </si>
+  <si>
+    <t>AEBC-AEBF</t>
+  </si>
+  <si>
+    <t>AEC0</t>
+  </si>
+  <si>
+    <t>AEC1</t>
+  </si>
+  <si>
+    <t>AEC2</t>
+  </si>
+  <si>
+    <t>AEC3</t>
+  </si>
+  <si>
+    <t>AEC4</t>
+  </si>
+  <si>
+    <t>AEC5</t>
+  </si>
+  <si>
+    <t>AEC6</t>
+  </si>
+  <si>
+    <t>AEC7</t>
+  </si>
+  <si>
+    <t>AEC8</t>
+  </si>
+  <si>
+    <t>AEC9</t>
+  </si>
+  <si>
+    <t>AECA</t>
+  </si>
+  <si>
+    <t>AECB</t>
+  </si>
+  <si>
+    <t>AECC-AECF</t>
+  </si>
+  <si>
+    <t>AED0</t>
+  </si>
+  <si>
+    <t>AED1</t>
+  </si>
+  <si>
+    <t>AED2</t>
+  </si>
+  <si>
+    <t>AED3</t>
+  </si>
+  <si>
+    <t>AED4</t>
+  </si>
+  <si>
+    <t>AED5</t>
+  </si>
+  <si>
+    <t>AED6</t>
+  </si>
+  <si>
+    <t>AED7</t>
+  </si>
+  <si>
+    <t>AED8</t>
+  </si>
+  <si>
+    <t>AED9</t>
+  </si>
+  <si>
+    <t>AEDA</t>
+  </si>
+  <si>
+    <t>AEDB</t>
+  </si>
+  <si>
+    <t>AEDC-AEDF</t>
+  </si>
+  <si>
+    <t>AEE0</t>
+  </si>
+  <si>
+    <t>AEE1</t>
+  </si>
+  <si>
+    <t>AEE2</t>
+  </si>
+  <si>
+    <t>AEE3</t>
+  </si>
+  <si>
+    <t>AEE4</t>
+  </si>
+  <si>
+    <t>AEE5</t>
+  </si>
+  <si>
+    <t>AEE6</t>
+  </si>
+  <si>
+    <t>AEE7</t>
+  </si>
+  <si>
+    <t>AEE8</t>
+  </si>
+  <si>
+    <t>AEE9</t>
+  </si>
+  <si>
+    <t>AEEA</t>
+  </si>
+  <si>
+    <t>AEEB</t>
+  </si>
+  <si>
+    <t>AEEC-AEEF</t>
+  </si>
+  <si>
+    <t>AEF0</t>
+  </si>
+  <si>
+    <t>AEF1</t>
+  </si>
+  <si>
+    <t>AEF2</t>
+  </si>
+  <si>
+    <t>AEF3</t>
+  </si>
+  <si>
+    <t>AEA6</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3072,8 +3009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E288" sqref="E288"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3879,7 +3816,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>15</v>
@@ -3893,7 +3830,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
-        <v>105</v>
+        <v>303</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>20</v>
@@ -3907,7 +3844,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="s">
-        <v>106</v>
+        <v>304</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>21</v>
@@ -3921,7 +3858,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
-        <v>107</v>
+        <v>305</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>22</v>
@@ -3935,7 +3872,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>306</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>79</v>
@@ -3949,105 +3886,105 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
-        <v>123</v>
+        <v>307</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" s="11" t="s">
-        <v>124</v>
+        <v>308</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" s="11" t="s">
-        <v>125</v>
+        <v>309</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B70" s="11" t="s">
-        <v>126</v>
+        <v>310</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" s="11" t="s">
-        <v>127</v>
+        <v>311</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B72" s="11" t="s">
-        <v>128</v>
+        <v>312</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" s="11" t="s">
-        <v>129</v>
+        <v>313</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="s">
-        <v>130</v>
+        <v>314</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
@@ -4059,7 +3996,7 @@
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
@@ -4071,7 +4008,7 @@
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B76" s="2" t="s">
-        <v>132</v>
+        <v>316</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
@@ -4083,7 +4020,7 @@
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="s">
-        <v>133</v>
+        <v>317</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
@@ -4095,7 +4032,7 @@
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B78" s="2" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
@@ -4107,7 +4044,7 @@
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B79" s="2" t="s">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
@@ -4119,7 +4056,7 @@
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" s="2" t="s">
-        <v>136</v>
+        <v>320</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
@@ -4131,7 +4068,7 @@
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B81" s="2" t="s">
-        <v>137</v>
+        <v>321</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
@@ -4143,7 +4080,7 @@
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" s="2" t="s">
-        <v>138</v>
+        <v>322</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
@@ -4155,7 +4092,7 @@
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B83" s="2" t="s">
-        <v>139</v>
+        <v>323</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="s">
@@ -4167,175 +4104,175 @@
     </row>
     <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B84" s="2" t="s">
-        <v>154</v>
+        <v>324</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
     </row>
     <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B85" s="2" t="s">
-        <v>155</v>
+        <v>325</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B86" s="2" t="s">
-        <v>156</v>
+        <v>326</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B87" s="2" t="s">
-        <v>157</v>
+        <v>327</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B88" s="2" t="s">
-        <v>158</v>
+        <v>328</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" s="2" t="s">
-        <v>159</v>
+        <v>329</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B90" s="2" t="s">
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B91" s="2" t="s">
-        <v>161</v>
+        <v>331</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" s="2" t="s">
-        <v>162</v>
+        <v>332</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B93" s="2" t="s">
-        <v>163</v>
+        <v>333</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" s="2" t="s">
-        <v>164</v>
+        <v>334</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B95" s="2" t="s">
-        <v>165</v>
+        <v>335</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B96" s="2" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" s="2" t="s">
-        <v>167</v>
+        <v>337</v>
       </c>
       <c r="C97" s="1"/>
       <c r="D97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B98" s="2" t="s">
-        <v>175</v>
+        <v>338</v>
       </c>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
@@ -4347,7 +4284,7 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" s="2" t="s">
-        <v>176</v>
+        <v>339</v>
       </c>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
@@ -4359,7 +4296,7 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" s="2" t="s">
-        <v>177</v>
+        <v>340</v>
       </c>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
@@ -4371,7 +4308,7 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" s="2" t="s">
-        <v>178</v>
+        <v>341</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
@@ -4383,7 +4320,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" s="2" t="s">
-        <v>179</v>
+        <v>342</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
@@ -4395,2150 +4332,2150 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B103" s="2" t="s">
-        <v>180</v>
+        <v>343</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B104" s="2" t="s">
-        <v>181</v>
+        <v>344</v>
       </c>
       <c r="C104" s="1"/>
       <c r="D104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B105" s="2" t="s">
-        <v>182</v>
+        <v>345</v>
       </c>
       <c r="C105" s="1"/>
       <c r="D105" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B106" s="2" t="s">
-        <v>183</v>
+        <v>346</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B107" s="2" t="s">
-        <v>184</v>
+        <v>347</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>172</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B108" s="2" t="s">
-        <v>185</v>
+        <v>348</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B109" s="2" t="s">
-        <v>186</v>
+        <v>349</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B110" s="2" t="s">
-        <v>189</v>
+        <v>350</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B111" s="2" t="s">
-        <v>190</v>
+        <v>351</v>
       </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B112" s="2" t="s">
-        <v>191</v>
+        <v>352</v>
       </c>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B113" s="2" t="s">
-        <v>192</v>
+        <v>353</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>206</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B114" s="2" t="s">
-        <v>193</v>
+        <v>354</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>207</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B115" s="2" t="s">
-        <v>194</v>
+        <v>355</v>
       </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B116" s="2" t="s">
-        <v>199</v>
+        <v>356</v>
       </c>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>209</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B117" s="2" t="s">
-        <v>200</v>
+        <v>357</v>
       </c>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>210</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B118" s="2" t="s">
-        <v>201</v>
+        <v>358</v>
       </c>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B119" s="2" t="s">
-        <v>202</v>
+        <v>359</v>
       </c>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B120" s="2" t="s">
-        <v>203</v>
+        <v>360</v>
       </c>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>213</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B121" s="2" t="s">
-        <v>204</v>
+        <v>361</v>
       </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B122" s="11" t="s">
-        <v>215</v>
+        <v>362</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>216</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B123" s="11" t="s">
-        <v>226</v>
+        <v>363</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B124" s="11" t="s">
-        <v>195</v>
+        <v>364</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>218</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B125" s="11" t="s">
-        <v>196</v>
+        <v>365</v>
       </c>
       <c r="C125" s="1"/>
       <c r="D125" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>219</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B126" s="11" t="s">
-        <v>197</v>
+        <v>366</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B127" s="11" t="s">
-        <v>198</v>
+        <v>367</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>221</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B128" s="11" t="s">
-        <v>227</v>
+        <v>368</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>222</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B129" s="11" t="s">
-        <v>228</v>
+        <v>369</v>
       </c>
       <c r="C129" s="1"/>
       <c r="D129" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B130" s="11" t="s">
-        <v>229</v>
+        <v>370</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E130" s="12" t="s">
-        <v>224</v>
+        <v>159</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B131" s="11" t="s">
-        <v>230</v>
+        <v>371</v>
       </c>
       <c r="C131" s="1"/>
       <c r="D131" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E131" s="12" t="s">
-        <v>225</v>
+        <v>160</v>
       </c>
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B132" s="11" t="s">
-        <v>232</v>
+        <v>372</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E132" s="12" t="s">
-        <v>231</v>
+        <v>161</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B133" s="11" t="s">
-        <v>500</v>
+        <v>373</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>501</v>
+        <v>285</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B134" s="11" t="s">
-        <v>499</v>
+        <v>374</v>
       </c>
       <c r="C134" s="1"/>
       <c r="D134" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E134" s="12" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B135" s="11" t="s">
-        <v>234</v>
+        <v>375</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E135" s="12" t="s">
-        <v>245</v>
+        <v>163</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B136" s="11" t="s">
-        <v>235</v>
+        <v>376</v>
       </c>
       <c r="C136" s="1"/>
       <c r="D136" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E136" s="12" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B137" s="11" t="s">
-        <v>236</v>
+        <v>377</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E137" s="12" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B138" s="11" t="s">
-        <v>237</v>
+        <v>378</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E138" s="12" t="s">
-        <v>248</v>
+        <v>166</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B139" s="11" t="s">
-        <v>238</v>
+        <v>379</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E139" s="12" t="s">
-        <v>249</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B140" s="11" t="s">
-        <v>239</v>
+        <v>380</v>
       </c>
       <c r="C140" s="1"/>
       <c r="D140" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E140" s="12" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B141" s="11" t="s">
-        <v>240</v>
+        <v>381</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E141" s="12" t="s">
-        <v>251</v>
+        <v>169</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B142" s="11" t="s">
-        <v>241</v>
+        <v>382</v>
       </c>
       <c r="C142" s="1"/>
       <c r="D142" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>252</v>
+        <v>170</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B143" s="11" t="s">
-        <v>242</v>
+        <v>383</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E143" s="12" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B144" s="11" t="s">
-        <v>243</v>
+        <v>384</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E144" s="12" t="s">
-        <v>254</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B145" s="11" t="s">
-        <v>244</v>
+        <v>385</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E145" s="12" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B146" s="11" t="s">
-        <v>498</v>
+        <v>386</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E146" s="12" t="s">
-        <v>502</v>
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B147" s="11" t="s">
-        <v>497</v>
+        <v>387</v>
       </c>
       <c r="C147" s="1"/>
       <c r="D147" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E147" s="12" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B148" s="11" t="s">
-        <v>256</v>
+        <v>388</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>267</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B149" s="11" t="s">
-        <v>257</v>
+        <v>389</v>
       </c>
       <c r="C149" s="1"/>
       <c r="D149" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E149" s="12" t="s">
-        <v>268</v>
+        <v>175</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B150" s="11" t="s">
-        <v>258</v>
+        <v>390</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E150" s="12" t="s">
-        <v>269</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B151" s="11" t="s">
-        <v>259</v>
+        <v>391</v>
       </c>
       <c r="C151" s="1"/>
       <c r="D151" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E151" s="12" t="s">
-        <v>270</v>
+        <v>177</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B152" s="11" t="s">
-        <v>260</v>
+        <v>392</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B153" s="11" t="s">
-        <v>261</v>
+        <v>393</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>272</v>
+        <v>179</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B154" s="11" t="s">
-        <v>262</v>
+        <v>394</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>273</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B155" s="11" t="s">
-        <v>263</v>
+        <v>395</v>
       </c>
       <c r="C155" s="1"/>
       <c r="D155" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>274</v>
+        <v>181</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B156" s="11" t="s">
-        <v>264</v>
+        <v>396</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>275</v>
+        <v>182</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B157" s="11" t="s">
-        <v>265</v>
+        <v>397</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>276</v>
+        <v>183</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B158" s="11" t="s">
-        <v>266</v>
+        <v>398</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E158" s="12" t="s">
-        <v>277</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B159" s="11" t="s">
-        <v>496</v>
+        <v>399</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E159" s="12" t="s">
-        <v>503</v>
+        <v>287</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B160" s="11" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E160" s="12" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B161" s="11" t="s">
-        <v>278</v>
+        <v>401</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E161" s="12" t="s">
-        <v>289</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B162" s="11" t="s">
-        <v>279</v>
+        <v>402</v>
       </c>
       <c r="C162" s="1"/>
       <c r="D162" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E162" s="12" t="s">
-        <v>290</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B163" s="11" t="s">
-        <v>280</v>
+        <v>403</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E163" s="12" t="s">
-        <v>291</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B164" s="11" t="s">
-        <v>281</v>
+        <v>404</v>
       </c>
       <c r="C164" s="1"/>
       <c r="D164" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E164" s="12" t="s">
-        <v>292</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B165" s="11" t="s">
-        <v>282</v>
+        <v>405</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E165" s="12" t="s">
-        <v>293</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B166" s="11" t="s">
-        <v>283</v>
+        <v>406</v>
       </c>
       <c r="C166" s="1"/>
       <c r="D166" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E166" s="12" t="s">
-        <v>294</v>
+        <v>190</v>
       </c>
     </row>
     <row r="167" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B167" s="11" t="s">
-        <v>284</v>
+        <v>407</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E167" s="12" t="s">
-        <v>295</v>
+        <v>191</v>
       </c>
     </row>
     <row r="168" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B168" s="11" t="s">
-        <v>285</v>
+        <v>408</v>
       </c>
       <c r="C168" s="1"/>
       <c r="D168" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E168" s="12" t="s">
-        <v>296</v>
+        <v>192</v>
       </c>
     </row>
     <row r="169" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B169" s="11" t="s">
-        <v>286</v>
+        <v>409</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E169" s="12" t="s">
-        <v>297</v>
+        <v>193</v>
       </c>
     </row>
     <row r="170" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B170" s="11" t="s">
-        <v>287</v>
+        <v>410</v>
       </c>
       <c r="C170" s="1"/>
       <c r="D170" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E170" s="12" t="s">
-        <v>298</v>
+        <v>194</v>
       </c>
     </row>
     <row r="171" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B171" s="11" t="s">
-        <v>288</v>
+        <v>411</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E171" s="12" t="s">
-        <v>299</v>
+        <v>195</v>
       </c>
     </row>
     <row r="172" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B172" s="11" t="s">
-        <v>493</v>
+        <v>412</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E172" s="12" t="s">
-        <v>504</v>
+        <v>288</v>
       </c>
     </row>
     <row r="173" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B173" s="11" t="s">
-        <v>494</v>
+        <v>413</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E173" s="12" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="174" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B174" s="11" t="s">
-        <v>300</v>
+        <v>414</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E174" s="12" t="s">
-        <v>322</v>
+        <v>196</v>
       </c>
     </row>
     <row r="175" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B175" s="11" t="s">
-        <v>301</v>
+        <v>415</v>
       </c>
       <c r="C175" s="1"/>
       <c r="D175" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E175" s="12" t="s">
-        <v>323</v>
+        <v>197</v>
       </c>
     </row>
     <row r="176" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B176" s="11" t="s">
-        <v>302</v>
+        <v>416</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E176" s="12" t="s">
-        <v>324</v>
+        <v>198</v>
       </c>
     </row>
     <row r="177" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B177" s="11" t="s">
-        <v>303</v>
+        <v>417</v>
       </c>
       <c r="C177" s="1"/>
       <c r="D177" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E177" s="12" t="s">
-        <v>325</v>
+        <v>199</v>
       </c>
     </row>
     <row r="178" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B178" s="11" t="s">
-        <v>304</v>
+        <v>418</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E178" s="12" t="s">
-        <v>326</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B179" s="11" t="s">
-        <v>305</v>
+        <v>419</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E179" s="12" t="s">
-        <v>327</v>
+        <v>201</v>
       </c>
     </row>
     <row r="180" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B180" s="11" t="s">
-        <v>306</v>
+        <v>420</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E180" s="12" t="s">
-        <v>328</v>
+        <v>202</v>
       </c>
     </row>
     <row r="181" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B181" s="11" t="s">
-        <v>307</v>
+        <v>421</v>
       </c>
       <c r="C181" s="1"/>
       <c r="D181" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E181" s="12" t="s">
-        <v>329</v>
+        <v>203</v>
       </c>
     </row>
     <row r="182" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B182" s="11" t="s">
-        <v>308</v>
+        <v>422</v>
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E182" s="12" t="s">
-        <v>330</v>
+        <v>204</v>
       </c>
     </row>
     <row r="183" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B183" s="11" t="s">
-        <v>309</v>
+        <v>423</v>
       </c>
       <c r="C183" s="1"/>
       <c r="D183" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E183" s="12" t="s">
-        <v>331</v>
+        <v>205</v>
       </c>
     </row>
     <row r="184" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B184" s="11" t="s">
-        <v>310</v>
+        <v>424</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E184" s="12" t="s">
-        <v>332</v>
+        <v>206</v>
       </c>
     </row>
     <row r="185" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B185" s="11" t="s">
-        <v>476</v>
+        <v>425</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E185" s="12" t="s">
-        <v>477</v>
+        <v>284</v>
       </c>
     </row>
     <row r="186" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B186" s="11" t="s">
-        <v>478</v>
+        <v>426</v>
       </c>
       <c r="C186" s="1"/>
       <c r="D186" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E186" s="12" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="187" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B187" s="11" t="s">
-        <v>311</v>
+        <v>427</v>
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E187" s="12" t="s">
-        <v>333</v>
+        <v>207</v>
       </c>
     </row>
     <row r="188" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B188" s="11" t="s">
-        <v>312</v>
+        <v>428</v>
       </c>
       <c r="C188" s="1"/>
       <c r="D188" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E188" s="12" t="s">
-        <v>334</v>
+        <v>208</v>
       </c>
     </row>
     <row r="189" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B189" s="11" t="s">
-        <v>313</v>
+        <v>429</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E189" s="12" t="s">
-        <v>335</v>
+        <v>209</v>
       </c>
     </row>
     <row r="190" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B190" s="11" t="s">
-        <v>314</v>
+        <v>430</v>
       </c>
       <c r="C190" s="1"/>
       <c r="D190" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E190" s="12" t="s">
-        <v>336</v>
+        <v>210</v>
       </c>
     </row>
     <row r="191" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B191" s="11" t="s">
-        <v>315</v>
+        <v>431</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E191" s="12" t="s">
-        <v>337</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B192" s="11" t="s">
-        <v>316</v>
+        <v>432</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E192" s="12" t="s">
-        <v>338</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B193" s="11" t="s">
-        <v>317</v>
+        <v>433</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E193" s="12" t="s">
-        <v>339</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B194" s="11" t="s">
-        <v>318</v>
+        <v>434</v>
       </c>
       <c r="C194" s="1"/>
       <c r="D194" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E194" s="12" t="s">
-        <v>340</v>
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B195" s="11" t="s">
-        <v>319</v>
+        <v>435</v>
       </c>
       <c r="C195" s="10"/>
       <c r="D195" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E195" s="12" t="s">
-        <v>341</v>
+        <v>215</v>
       </c>
     </row>
     <row r="196" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B196" s="11" t="s">
-        <v>320</v>
+        <v>436</v>
       </c>
       <c r="C196" s="1"/>
       <c r="D196" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E196" s="12" t="s">
-        <v>342</v>
+        <v>216</v>
       </c>
     </row>
     <row r="197" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B197" s="11" t="s">
-        <v>321</v>
+        <v>437</v>
       </c>
       <c r="C197" s="10"/>
       <c r="D197" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E197" s="12" t="s">
-        <v>343</v>
+        <v>217</v>
       </c>
     </row>
     <row r="198" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B198" s="11" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E198" s="12" t="s">
-        <v>505</v>
+        <v>289</v>
       </c>
     </row>
     <row r="199" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B199" s="11" t="s">
-        <v>492</v>
+        <v>439</v>
       </c>
       <c r="C199" s="1"/>
       <c r="D199" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E199" s="12" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="200" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B200" s="11" t="s">
-        <v>344</v>
+        <v>440</v>
       </c>
       <c r="C200" s="10"/>
       <c r="D200" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E200" s="12" t="s">
-        <v>410</v>
+        <v>218</v>
       </c>
     </row>
     <row r="201" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B201" s="11" t="s">
-        <v>345</v>
+        <v>441</v>
       </c>
       <c r="C201" s="1"/>
       <c r="D201" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E201" s="12" t="s">
-        <v>411</v>
+        <v>219</v>
       </c>
     </row>
     <row r="202" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B202" s="11" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="C202" s="10"/>
       <c r="D202" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E202" s="12" t="s">
-        <v>412</v>
+        <v>220</v>
       </c>
     </row>
     <row r="203" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B203" s="11" t="s">
-        <v>347</v>
+        <v>443</v>
       </c>
       <c r="C203" s="1"/>
       <c r="D203" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E203" s="12" t="s">
-        <v>413</v>
+        <v>221</v>
       </c>
     </row>
     <row r="204" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B204" s="11" t="s">
-        <v>348</v>
+        <v>444</v>
       </c>
       <c r="C204" s="10"/>
       <c r="D204" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>414</v>
+        <v>222</v>
       </c>
     </row>
     <row r="205" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B205" s="11" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="C205" s="1"/>
       <c r="D205" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E205" s="12" t="s">
-        <v>415</v>
+        <v>223</v>
       </c>
     </row>
     <row r="206" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B206" s="11" t="s">
-        <v>350</v>
+        <v>446</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>416</v>
+        <v>224</v>
       </c>
     </row>
     <row r="207" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B207" s="11" t="s">
-        <v>351</v>
+        <v>447</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E207" s="12" t="s">
-        <v>417</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B208" s="11" t="s">
-        <v>352</v>
+        <v>448</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>418</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B209" s="11" t="s">
-        <v>353</v>
+        <v>449</v>
       </c>
       <c r="C209" s="1"/>
       <c r="D209" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E209" s="12" t="s">
-        <v>419</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B210" s="11" t="s">
-        <v>354</v>
+        <v>450</v>
       </c>
       <c r="C210" s="10"/>
       <c r="D210" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E210" s="12" t="s">
-        <v>420</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B211" s="11" t="s">
-        <v>490</v>
+        <v>451</v>
       </c>
       <c r="C211" s="10"/>
       <c r="D211" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E211" s="12" t="s">
-        <v>506</v>
+        <v>290</v>
       </c>
     </row>
     <row r="212" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B212" s="11" t="s">
-        <v>489</v>
+        <v>452</v>
       </c>
       <c r="C212" s="1"/>
       <c r="D212" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E212" s="12" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="213" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B213" s="11" t="s">
-        <v>355</v>
+        <v>453</v>
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E213" s="12" t="s">
-        <v>421</v>
+        <v>229</v>
       </c>
     </row>
     <row r="214" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B214" s="11" t="s">
-        <v>356</v>
+        <v>454</v>
       </c>
       <c r="C214" s="1"/>
       <c r="D214" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E214" s="12" t="s">
-        <v>422</v>
+        <v>230</v>
       </c>
     </row>
     <row r="215" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B215" s="11" t="s">
-        <v>357</v>
+        <v>455</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E215" s="12" t="s">
-        <v>423</v>
+        <v>231</v>
       </c>
     </row>
     <row r="216" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B216" s="11" t="s">
-        <v>358</v>
+        <v>456</v>
       </c>
       <c r="C216" s="1"/>
       <c r="D216" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E216" s="12" t="s">
-        <v>424</v>
+        <v>232</v>
       </c>
     </row>
     <row r="217" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B217" s="11" t="s">
-        <v>359</v>
+        <v>457</v>
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E217" s="12" t="s">
-        <v>425</v>
+        <v>233</v>
       </c>
     </row>
     <row r="218" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B218" s="11" t="s">
-        <v>360</v>
+        <v>458</v>
       </c>
       <c r="C218" s="1"/>
       <c r="D218" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E218" s="12" t="s">
-        <v>426</v>
+        <v>234</v>
       </c>
     </row>
     <row r="219" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B219" s="11" t="s">
-        <v>361</v>
+        <v>521</v>
       </c>
       <c r="C219" s="10"/>
       <c r="D219" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E219" s="12" t="s">
-        <v>427</v>
+        <v>235</v>
       </c>
     </row>
     <row r="220" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B220" s="11" t="s">
-        <v>362</v>
+        <v>459</v>
       </c>
       <c r="C220" s="1"/>
       <c r="D220" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E220" s="12" t="s">
-        <v>428</v>
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B221" s="11" t="s">
-        <v>363</v>
+        <v>460</v>
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E221" s="12" t="s">
-        <v>429</v>
+        <v>237</v>
       </c>
     </row>
     <row r="222" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B222" s="11" t="s">
-        <v>364</v>
+        <v>461</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E222" s="12" t="s">
-        <v>430</v>
+        <v>238</v>
       </c>
     </row>
     <row r="223" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B223" s="11" t="s">
-        <v>365</v>
+        <v>462</v>
       </c>
       <c r="C223" s="10"/>
       <c r="D223" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E223" s="12" t="s">
-        <v>431</v>
+        <v>239</v>
       </c>
     </row>
     <row r="224" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B224" s="11" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E224" s="12" t="s">
-        <v>507</v>
+        <v>291</v>
       </c>
     </row>
     <row r="225" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B225" s="11" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E225" s="12" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="226" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B226" s="11" t="s">
-        <v>366</v>
+        <v>465</v>
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E226" s="12" t="s">
-        <v>432</v>
+        <v>240</v>
       </c>
     </row>
     <row r="227" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B227" s="11" t="s">
-        <v>367</v>
+        <v>466</v>
       </c>
       <c r="C227" s="1"/>
       <c r="D227" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E227" s="12" t="s">
-        <v>433</v>
+        <v>241</v>
       </c>
     </row>
     <row r="228" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B228" s="11" t="s">
-        <v>368</v>
+        <v>467</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E228" s="12" t="s">
-        <v>434</v>
+        <v>242</v>
       </c>
     </row>
     <row r="229" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B229" s="11" t="s">
-        <v>369</v>
+        <v>468</v>
       </c>
       <c r="C229" s="1"/>
       <c r="D229" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E229" s="12" t="s">
-        <v>435</v>
+        <v>243</v>
       </c>
     </row>
     <row r="230" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B230" s="11" t="s">
-        <v>370</v>
+        <v>469</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E230" s="12" t="s">
-        <v>436</v>
+        <v>244</v>
       </c>
     </row>
     <row r="231" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B231" s="11" t="s">
-        <v>371</v>
+        <v>470</v>
       </c>
       <c r="C231" s="1"/>
       <c r="D231" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E231" s="12" t="s">
-        <v>437</v>
+        <v>245</v>
       </c>
     </row>
     <row r="232" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B232" s="11" t="s">
-        <v>372</v>
+        <v>471</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E232" s="12" t="s">
-        <v>438</v>
+        <v>246</v>
       </c>
     </row>
     <row r="233" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B233" s="11" t="s">
-        <v>373</v>
+        <v>472</v>
       </c>
       <c r="C233" s="1"/>
       <c r="D233" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E233" s="12" t="s">
-        <v>439</v>
+        <v>247</v>
       </c>
     </row>
     <row r="234" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B234" s="11" t="s">
-        <v>374</v>
+        <v>473</v>
       </c>
       <c r="C234" s="10"/>
       <c r="D234" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E234" s="12" t="s">
-        <v>440</v>
+        <v>248</v>
       </c>
     </row>
     <row r="235" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B235" s="11" t="s">
-        <v>375</v>
+        <v>474</v>
       </c>
       <c r="C235" s="1"/>
       <c r="D235" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E235" s="12" t="s">
-        <v>441</v>
+        <v>249</v>
       </c>
     </row>
     <row r="236" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B236" s="11" t="s">
-        <v>376</v>
+        <v>475</v>
       </c>
       <c r="C236" s="10"/>
       <c r="D236" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E236" s="12" t="s">
-        <v>442</v>
+        <v>250</v>
       </c>
     </row>
     <row r="237" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B237" s="11" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="C237" s="10"/>
       <c r="D237" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E237" s="12" t="s">
-        <v>508</v>
+        <v>292</v>
       </c>
     </row>
     <row r="238" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B238" s="11" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C238" s="1"/>
       <c r="D238" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E238" s="12" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="239" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B239" s="11" t="s">
-        <v>377</v>
+        <v>478</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E239" s="12" t="s">
-        <v>443</v>
+        <v>251</v>
       </c>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B240" s="11" t="s">
-        <v>378</v>
+        <v>479</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E240" s="12" t="s">
-        <v>444</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B241" s="11" t="s">
-        <v>379</v>
+        <v>480</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E241" s="12" t="s">
-        <v>445</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B242" s="11" t="s">
-        <v>380</v>
+        <v>481</v>
       </c>
       <c r="C242" s="1"/>
       <c r="D242" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E242" s="12" t="s">
-        <v>446</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B243" s="11" t="s">
-        <v>381</v>
+        <v>482</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E243" s="12" t="s">
-        <v>447</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B244" s="11" t="s">
-        <v>382</v>
+        <v>483</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E244" s="12" t="s">
-        <v>448</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B245" s="11" t="s">
-        <v>383</v>
+        <v>484</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E245" s="12" t="s">
-        <v>449</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B246" s="11" t="s">
-        <v>384</v>
+        <v>485</v>
       </c>
       <c r="C246" s="1"/>
       <c r="D246" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E246" s="12" t="s">
-        <v>450</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B247" s="11" t="s">
-        <v>385</v>
+        <v>486</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E247" s="12" t="s">
-        <v>451</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B248" s="11" t="s">
-        <v>386</v>
+        <v>487</v>
       </c>
       <c r="C248" s="1"/>
       <c r="D248" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E248" s="12" t="s">
-        <v>452</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B249" s="11" t="s">
-        <v>387</v>
+        <v>488</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E249" s="12" t="s">
-        <v>453</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B250" s="11" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E250" s="12" t="s">
-        <v>509</v>
+        <v>293</v>
       </c>
     </row>
     <row r="251" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B251" s="11" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="C251" s="1"/>
       <c r="D251" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E251" s="12" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="252" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B252" s="11" t="s">
-        <v>388</v>
+        <v>491</v>
       </c>
       <c r="C252" s="10"/>
       <c r="D252" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E252" s="12" t="s">
-        <v>454</v>
+        <v>262</v>
       </c>
     </row>
     <row r="253" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B253" s="11" t="s">
-        <v>389</v>
+        <v>492</v>
       </c>
       <c r="C253" s="1"/>
       <c r="D253" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E253" s="12" t="s">
-        <v>455</v>
+        <v>263</v>
       </c>
     </row>
     <row r="254" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B254" s="11" t="s">
-        <v>390</v>
+        <v>493</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E254" s="12" t="s">
-        <v>456</v>
+        <v>264</v>
       </c>
     </row>
     <row r="255" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B255" s="11" t="s">
-        <v>391</v>
+        <v>494</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E255" s="12" t="s">
-        <v>457</v>
+        <v>265</v>
       </c>
     </row>
     <row r="256" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B256" s="11" t="s">
-        <v>392</v>
+        <v>495</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E256" s="12" t="s">
-        <v>458</v>
+        <v>266</v>
       </c>
     </row>
     <row r="257" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B257" s="11" t="s">
-        <v>393</v>
+        <v>496</v>
       </c>
       <c r="C257" s="1"/>
       <c r="D257" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E257" s="12" t="s">
-        <v>459</v>
+        <v>267</v>
       </c>
     </row>
     <row r="258" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B258" s="11" t="s">
-        <v>394</v>
+        <v>497</v>
       </c>
       <c r="C258" s="10"/>
       <c r="D258" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E258" s="12" t="s">
-        <v>460</v>
+        <v>268</v>
       </c>
     </row>
     <row r="259" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B259" s="11" t="s">
-        <v>395</v>
+        <v>498</v>
       </c>
       <c r="C259" s="1"/>
       <c r="D259" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E259" s="12" t="s">
-        <v>461</v>
+        <v>269</v>
       </c>
     </row>
     <row r="260" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B260" s="11" t="s">
-        <v>396</v>
+        <v>499</v>
       </c>
       <c r="C260" s="10"/>
       <c r="D260" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E260" s="12" t="s">
-        <v>462</v>
+        <v>270</v>
       </c>
     </row>
     <row r="261" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B261" s="11" t="s">
-        <v>397</v>
+        <v>500</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E261" s="12" t="s">
-        <v>463</v>
+        <v>271</v>
       </c>
     </row>
     <row r="262" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B262" s="11" t="s">
-        <v>398</v>
+        <v>501</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E262" s="12" t="s">
-        <v>464</v>
+        <v>272</v>
       </c>
     </row>
     <row r="263" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B263" s="11" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E263" s="12" t="s">
-        <v>510</v>
+        <v>294</v>
       </c>
     </row>
     <row r="264" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B264" s="11" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="C264" s="1"/>
       <c r="D264" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E264" s="12" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="265" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B265" s="11" t="s">
-        <v>399</v>
+        <v>504</v>
       </c>
       <c r="C265" s="10"/>
       <c r="D265" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E265" s="12" t="s">
-        <v>465</v>
+        <v>273</v>
       </c>
     </row>
     <row r="266" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B266" s="11" t="s">
-        <v>400</v>
+        <v>505</v>
       </c>
       <c r="C266" s="1"/>
       <c r="D266" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E266" s="12" t="s">
-        <v>466</v>
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B267" s="11" t="s">
-        <v>401</v>
+        <v>506</v>
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E267" s="12" t="s">
-        <v>467</v>
+        <v>275</v>
       </c>
     </row>
     <row r="268" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B268" s="11" t="s">
-        <v>402</v>
+        <v>507</v>
       </c>
       <c r="C268" s="1"/>
       <c r="D268" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E268" s="12" t="s">
-        <v>468</v>
+        <v>276</v>
       </c>
     </row>
     <row r="269" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B269" s="11" t="s">
-        <v>403</v>
+        <v>508</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E269" s="12" t="s">
-        <v>469</v>
+        <v>277</v>
       </c>
     </row>
     <row r="270" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B270" s="11" t="s">
-        <v>404</v>
+        <v>509</v>
       </c>
       <c r="C270" s="1"/>
       <c r="D270" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E270" s="12" t="s">
-        <v>470</v>
+        <v>278</v>
       </c>
     </row>
     <row r="271" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B271" s="11" t="s">
-        <v>405</v>
+        <v>510</v>
       </c>
       <c r="C271" s="10"/>
       <c r="D271" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E271" s="12" t="s">
-        <v>471</v>
+        <v>279</v>
       </c>
     </row>
     <row r="272" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B272" s="11" t="s">
-        <v>406</v>
+        <v>511</v>
       </c>
       <c r="C272" s="1"/>
       <c r="D272" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E272" s="12" t="s">
-        <v>472</v>
+        <v>280</v>
       </c>
     </row>
     <row r="273" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B273" s="11" t="s">
-        <v>407</v>
+        <v>512</v>
       </c>
       <c r="C273" s="10"/>
       <c r="D273" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E273" s="12" t="s">
-        <v>473</v>
+        <v>281</v>
       </c>
     </row>
     <row r="274" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B274" s="11" t="s">
-        <v>408</v>
+        <v>513</v>
       </c>
       <c r="C274" s="1"/>
       <c r="D274" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E274" s="12" t="s">
-        <v>474</v>
+        <v>282</v>
       </c>
     </row>
     <row r="275" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B275" s="11" t="s">
-        <v>409</v>
+        <v>514</v>
       </c>
       <c r="C275" s="10"/>
       <c r="D275" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E275" s="12" t="s">
-        <v>475</v>
+        <v>283</v>
       </c>
     </row>
     <row r="276" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B276" s="11" t="s">
-        <v>479</v>
+        <v>515</v>
       </c>
       <c r="C276" s="10"/>
       <c r="D276" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E276" s="12" t="s">
-        <v>511</v>
+        <v>295</v>
       </c>
     </row>
     <row r="277" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B277" s="11" t="s">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E277" s="12" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
     </row>
     <row r="278" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B278" s="11" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C278" s="1"/>
       <c r="D278" s="10" t="s">
-        <v>514</v>
+        <v>297</v>
       </c>
       <c r="E278" s="12" t="s">
-        <v>515</v>
+        <v>298</v>
       </c>
     </row>
     <row r="279" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B279" s="11" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C279" s="1"/>
       <c r="D279" s="10" t="s">
-        <v>513</v>
+        <v>296</v>
       </c>
       <c r="E279" s="12" t="s">
-        <v>517</v>
+        <v>299</v>
       </c>
     </row>
     <row r="280" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B280" s="11" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="10" t="s">
-        <v>514</v>
+        <v>297</v>
       </c>
       <c r="E280" s="12" t="s">
-        <v>520</v>
+        <v>300</v>
       </c>
     </row>
     <row r="281" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B281" s="13" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C281" s="5"/>
       <c r="D281" s="14" t="s">
-        <v>513</v>
+        <v>296</v>
       </c>
       <c r="E281" s="15" t="s">
-        <v>521</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/doc/wts_register_map.xlsx
+++ b/doc/wts_register_map.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="192">
   <si>
     <t>SCC registers</t>
     <phoneticPr fontId="1"/>
@@ -543,20 +543,6 @@
     <t>WM9</t>
   </si>
   <si>
-    <t>WM10</t>
-  </si>
-  <si>
-    <t>WM11</t>
-  </si>
-  <si>
-    <t>ウェーブメモリー Ch.F0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ウェーブメモリー Ch.F1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ウェーブメモリー Ch.A1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -581,70 +567,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ch.A0 AR下位</t>
-    <rPh sb="8" eb="10">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ch.A0 AR上位</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ch.A0 DR下位</t>
-    <rPh sb="8" eb="10">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ch.A0 DR上位</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ch.A0 SR下位</t>
-    <rPh sb="8" eb="10">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ch.A0 SR上位</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ch.A0 RR下位</t>
-    <rPh sb="8" eb="10">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ch.A0 RR上位</t>
-    <rPh sb="8" eb="10">
-      <t>ジョウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ch.A0 SL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ch.A0 ノイズ周波数、イネーブル</t>
-    <rPh sb="9" eb="12">
-      <t>シュウハスウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -683,132 +606,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A800-A87F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A880-A8FF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A900-A97F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A980-A9FF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AA00-AA7F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AA80-AAFF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AB00-AB7F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AB80-ABFF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AC00-AC7F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AC80-ACFF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AD00-AD7F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AD80-ADFF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE00</t>
-  </si>
-  <si>
-    <t>AE01</t>
-  </si>
-  <si>
-    <t>AEF0</t>
-  </si>
-  <si>
-    <t>AEF1</t>
-  </si>
-  <si>
-    <t>AEF2</t>
-  </si>
-  <si>
-    <t>AEF3</t>
-  </si>
-  <si>
-    <t>AE02</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE03</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE04</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE06</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE07</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE08</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE09</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE0A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE0B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE0C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE0D</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE0E</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE0F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE10-AE1F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>WO</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -829,10 +626,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ch.F0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ch.A1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -853,47 +646,228 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Ch.F1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE20-AE2F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE30-AE3F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE40-AE4F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE50-AE5F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE60-AE6F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE70-AE7F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE80-AE8F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AE90-AE9F</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AEA0-AEAF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AEB0-AEBF</t>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserved</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ch.A0 RR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ch.A0 AR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ch.A0 DR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ch.A0 SR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A800-A8FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A000-A0FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A100-A1FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A200-A2FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A300-A3FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A400-A4FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A500-A5FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A600-A6FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A700-A7FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A900-A9FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AF00</t>
+  </si>
+  <si>
+    <t>AF01</t>
+  </si>
+  <si>
+    <t>AF02</t>
+  </si>
+  <si>
+    <t>AF03</t>
+  </si>
+  <si>
+    <t>AF04</t>
+  </si>
+  <si>
+    <t>AF05</t>
+  </si>
+  <si>
+    <t>AF06</t>
+  </si>
+  <si>
+    <t>AF07</t>
+  </si>
+  <si>
+    <t>AF08</t>
+  </si>
+  <si>
+    <t>AF09</t>
+  </si>
+  <si>
+    <t>AF0A</t>
+  </si>
+  <si>
+    <t>AF0B</t>
+  </si>
+  <si>
+    <t>AF0C-AF0F</t>
+  </si>
+  <si>
+    <t>AF10-AF1F</t>
+  </si>
+  <si>
+    <t>AF20-AF2F</t>
+  </si>
+  <si>
+    <t>AF30-AF3F</t>
+  </si>
+  <si>
+    <t>AF40-AF4F</t>
+  </si>
+  <si>
+    <t>AF50-AF5F</t>
+  </si>
+  <si>
+    <t>AF60-AF6F</t>
+  </si>
+  <si>
+    <t>AF70-AF7F</t>
+  </si>
+  <si>
+    <t>AF80-AF8F</t>
+  </si>
+  <si>
+    <t>AF90-AF9F</t>
+  </si>
+  <si>
+    <t>AA00-AEFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AFA0-AFEF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0:32sample, 1:64sample, 2:128sample, 3:256sample</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AFF8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AFF9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AFFA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AFFB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AFF0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AFF1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AFF2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AFF3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AFF4-AFF7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserved</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノイズ周波数0</t>
+    <rPh sb="3" eb="6">
+      <t>シュウハスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノイズ周波数1</t>
+    <rPh sb="3" eb="6">
+      <t>シュウハスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノイズ周波数2</t>
+    <rPh sb="3" eb="6">
+      <t>シュウハスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノイズ周波数3</t>
+    <rPh sb="3" eb="6">
+      <t>シュウハスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ch.A0 ノイズ選択、イネーブル</t>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1081,7 +1055,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1140,6 +1114,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1422,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E104"/>
+  <dimension ref="A2:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2231,7 +2208,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B62" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>15</v>
@@ -2245,7 +2222,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B63" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>20</v>
@@ -2259,7 +2236,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B64" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>21</v>
@@ -2273,7 +2250,7 @@
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B65" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>22</v>
@@ -2287,7 +2264,7 @@
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>79</v>
@@ -2301,7 +2278,7 @@
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>104</v>
@@ -2310,12 +2287,12 @@
         <v>7</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B68" s="11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>105</v>
@@ -2324,12 +2301,12 @@
         <v>7</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B69" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>106</v>
@@ -2338,12 +2315,12 @@
         <v>7</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B70" s="11" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>107</v>
@@ -2352,12 +2329,12 @@
         <v>7</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B71" s="11" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>108</v>
@@ -2366,407 +2343,406 @@
         <v>7</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B72" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>109</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C72" s="1"/>
       <c r="D72" s="1" t="s">
-        <v>7</v>
+        <v>134</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B73" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>110</v>
-      </c>
+      <c r="B73" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B74" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B75" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B76" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B77" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>118</v>
+      <c r="B77" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B78" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B79" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C79" s="1"/>
+        <v>156</v>
+      </c>
+      <c r="C79" s="10"/>
       <c r="D79" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B80" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B81" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B82" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B83" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="1"/>
-      <c r="D81" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B82" s="11" t="s">
+      <c r="C83" s="10"/>
+      <c r="D83" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B84" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B83" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83" s="1"/>
-      <c r="D83" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B84" s="11" t="s">
-        <v>163</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B85" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="C85" s="1"/>
+        <v>162</v>
+      </c>
+      <c r="C85" s="10"/>
       <c r="D85" s="10" t="s">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B86" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B87" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" s="1"/>
+        <v>164</v>
+      </c>
+      <c r="C87" s="10"/>
       <c r="D87" s="10" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B88" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B89" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="10" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B90" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="10" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B91" s="11" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="10" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B92" s="11" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B93" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B93" s="11" t="s">
-        <v>184</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B94" s="11" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B95" s="11" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="10" t="s">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B96" s="11" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" s="11" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B98" s="11" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B99" s="11" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" s="11" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B101" s="11" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="C101" s="1"/>
       <c r="D101" s="10" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B102" s="11" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C102" s="1"/>
       <c r="D102" s="10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B103" s="11" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="C103" s="1"/>
       <c r="D103" s="10" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B104" s="13" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="14" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
